--- a/Schema Design/Schemas.xlsx
+++ b/Schema Design/Schemas.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rishi\OneDrive\Desktop\untitled\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rishi\OneDrive\Desktop\Node\Schema Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68FF966-A0DE-4BFD-901D-E3523EBDFE9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45631670-A6FC-4E06-B289-1FFED6B08A57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{63B837C1-41E2-47B2-B1B2-537C4BD5A316}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Design" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="53">
   <si>
     <t>Students</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Buses</t>
   </si>
   <si>
-    <t>Users</t>
-  </si>
-  <si>
     <t>Tables</t>
   </si>
   <si>
@@ -93,12 +90,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>LoginName</t>
-  </si>
-  <si>
-    <t>User_ID</t>
-  </si>
-  <si>
     <t>School_ID</t>
   </si>
   <si>
@@ -117,12 +108,6 @@
     <t>Admin_ID</t>
   </si>
   <si>
-    <t>1 to 1</t>
-  </si>
-  <si>
-    <t>Relationships</t>
-  </si>
-  <si>
     <t>Location_ID</t>
   </si>
   <si>
@@ -150,53 +135,85 @@
     <t>Status</t>
   </si>
   <si>
-    <t>API Endpoints</t>
-  </si>
-  <si>
-    <t>Collections</t>
-  </si>
-  <si>
-    <t>api/parents</t>
-  </si>
-  <si>
-    <t>Method</t>
-  </si>
-  <si>
-    <t>GET</t>
-  </si>
-  <si>
-    <t>POST</t>
-  </si>
-  <si>
-    <t>api/parents/:id</t>
-  </si>
-  <si>
-    <t>PUT</t>
-  </si>
-  <si>
-    <t>Fields</t>
-  </si>
-  <si>
     <t>Longitude</t>
   </si>
   <si>
     <t>Latitude</t>
   </si>
   <si>
-    <t>LoginDetails</t>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>SuperUser</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Reference Dependency Ranking</t>
+  </si>
+  <si>
+    <t>Bus</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Route</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>Parent</t>
+  </si>
+  <si>
+    <t>Driver</t>
+  </si>
+  <si>
+    <t>School</t>
+  </si>
+  <si>
+    <t>Daily Attendance</t>
+  </si>
+  <si>
+    <t>Meta Tables</t>
   </si>
   <si>
     <t>Logs</t>
+  </si>
+  <si>
+    <t>Login Logs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -217,12 +234,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -245,17 +262,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -271,6 +328,1187 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>768350</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle: Rounded Corners 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E3B988E-0B2A-4E87-8CD6-2CC669D43638}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4464050" y="11144250"/>
+          <a:ext cx="1797050" cy="819150"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 29070"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>               </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>SuperUser</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>565150</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle: Rounded Corners 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87E7FC0B-FB3F-4C2D-999D-B9E832265112}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2463800" y="12827000"/>
+          <a:ext cx="1797050" cy="819150"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>                  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Admin</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>930275</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{590309BF-FA78-4CF3-A0BB-9C41619193EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="3" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3362325" y="11963400"/>
+          <a:ext cx="2000250" cy="863600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle: Rounded Corners 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D261B5C6-7C73-4171-954A-FE188A1A9EB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="50800" y="14503400"/>
+          <a:ext cx="1797050" cy="819150"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>                  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Parents</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>806450</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle: Rounded Corners 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2ABAD11C-C387-402B-9B59-AEF200C02FA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2019300" y="14509750"/>
+          <a:ext cx="1797050" cy="819150"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>                  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Students</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle: Rounded Corners 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC1C7525-B04D-4581-891C-B5D83F4A3EF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3962400" y="14509750"/>
+          <a:ext cx="1797050" cy="819150"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>                  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Drivers</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>895350</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle: Rounded Corners 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3395C67-E70C-4722-934C-BEE897416A3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5867400" y="12801600"/>
+          <a:ext cx="1797050" cy="819150"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>                  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>School</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>946150</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rectangle: Rounded Corners 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96E2418A-A0E5-491F-A8AF-A2D7D751216A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5918200" y="14497050"/>
+          <a:ext cx="1797050" cy="819150"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>                  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Locations</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>882650</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rectangle: Rounded Corners 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9958ABC3-3298-4AC4-A90E-24F30CEC5924}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7816850" y="14516100"/>
+          <a:ext cx="1797050" cy="819150"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>                  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Buses</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1035050</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rectangle: Rounded Corners 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{776AC6A3-0175-4508-A312-6F6F2CC3EE1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9766300" y="14528800"/>
+          <a:ext cx="1797050" cy="819150"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>                  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Routes</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>949325</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>930275</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CC44B6C-AC0F-4854-A772-C09B23B11A3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="6" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="949325" y="13646150"/>
+          <a:ext cx="2413000" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>930275</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F857532D-E169-4944-90FF-B90F8E1F137C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="7" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2917825" y="13646150"/>
+          <a:ext cx="444500" cy="863600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>930275</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1165225</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C96A47CA-D386-4163-A0CE-C8BF68967E16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="8" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3362325" y="13646150"/>
+          <a:ext cx="1498600" cy="863600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>930275</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>701675</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7746622-7BF8-4F89-86C0-4FBA53F6DB1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="11" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3362325" y="13646150"/>
+          <a:ext cx="3454400" cy="850900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>930275</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1412875</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Straight Arrow Connector 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA90FF02-7F53-4C6E-986B-DE8BA5571F58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="12" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3362325" y="13646150"/>
+          <a:ext cx="5353050" cy="869950"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>930275</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>765175</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Straight Arrow Connector 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C480A1A6-0E36-434C-A5E1-DAA4DE08D2AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="13" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3362325" y="13646150"/>
+          <a:ext cx="7302500" cy="882650"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>650875</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDEB9883-A1C8-4BC4-B237-8A2478F7FED6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="9" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5362575" y="11963400"/>
+          <a:ext cx="1403350" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>793750</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Rectangle: Rounded Corners 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11D44A14-5BAE-42DA-B029-3887AB525C80}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3968750" y="16332200"/>
+          <a:ext cx="1797050" cy="819150"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>           </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Daily Attendance</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1165225</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1171575</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Straight Arrow Connector 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{133DEFF7-989D-4276-A722-DDC082D869BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="2"/>
+          <a:endCxn id="28" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4860925" y="15328900"/>
+          <a:ext cx="6350" cy="1003300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -570,10 +1808,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3CA4A4C-D98F-4F60-B24C-BB9338EBB26D}">
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -584,472 +1822,388 @@
     <col min="4" max="4" width="18.26953125" customWidth="1"/>
     <col min="5" max="5" width="16.36328125" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="20.453125" customWidth="1"/>
+    <col min="7" max="7" width="17.1796875" customWidth="1"/>
     <col min="8" max="8" width="16.7265625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.08984375" customWidth="1"/>
+    <col min="10" max="10" width="11.54296875" customWidth="1"/>
+    <col min="11" max="11" width="14.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="G7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" t="s">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="C12" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" t="s">
-        <v>22</v>
-      </c>
       <c r="F13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H13" t="s">
         <v>31</v>
       </c>
       <c r="I13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+      <c r="J13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15" t="s">
         <v>8</v>
       </c>
-      <c r="D14" t="s">
+      <c r="J15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E14" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" t="s">
-        <v>30</v>
-      </c>
-      <c r="I14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
         <v>9</v>
       </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" t="s">
-        <v>32</v>
-      </c>
-      <c r="H15" t="s">
-        <v>35</v>
-      </c>
-      <c r="I15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" t="s">
         <v>19</v>
       </c>
-      <c r="D16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" t="s">
-        <v>48</v>
-      </c>
       <c r="I16" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="J16" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
         <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>7</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" t="s">
-        <v>49</v>
+        <v>35</v>
+      </c>
+      <c r="H17" t="s">
+        <v>21</v>
       </c>
       <c r="I17" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" t="s">
         <v>9</v>
-      </c>
-      <c r="C18" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="I19" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
       </c>
       <c r="C20" t="s">
         <v>15</v>
       </c>
+      <c r="I20" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>26</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="5"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="8"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="8"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F24" s="3" t="s">
+      <c r="B31" s="6"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="6"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="6"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="6"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25" t="s">
-        <v>1</v>
-      </c>
-      <c r="F25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B26" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" t="s">
-        <v>44</v>
-      </c>
-      <c r="F26" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B27" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" t="s">
-        <v>43</v>
-      </c>
-      <c r="F27" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B28" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" t="s">
-        <v>46</v>
-      </c>
-      <c r="F28" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F29" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F30" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F32" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="E34" t="s">
-        <v>0</v>
-      </c>
-      <c r="F34" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="F35" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="F36" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D37" t="s">
-        <v>50</v>
-      </c>
-      <c r="F37" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="38" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D38" t="s">
-        <v>51</v>
-      </c>
-      <c r="F38" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="F39" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="F40" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="41" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="F41" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="42" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="F42" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="45" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="E45" t="s">
-        <v>2</v>
-      </c>
-      <c r="F45" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="46" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="F46" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="47" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="F47" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="48" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="F48" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F49" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F50" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="51" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F51" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="52" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F52" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F53" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="54" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F54" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="55" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F55" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="56" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F56" t="s">
-        <v>27</v>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B36" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="G6:I6"/>
+  <mergeCells count="7">
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Schema Design/Schemas.xlsx
+++ b/Schema Design/Schemas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rishi\OneDrive\Desktop\Node\Schema Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45631670-A6FC-4E06-B289-1FFED6B08A57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C0DDA6-5477-48E0-AA82-9E08380DEC02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{63B837C1-41E2-47B2-B1B2-537C4BD5A316}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="54">
   <si>
     <t>Students</t>
   </si>
@@ -190,6 +190,9 @@
   </si>
   <si>
     <t>Login Logs</t>
+  </si>
+  <si>
+    <t>SuperUser_ID</t>
   </si>
 </sst>
 </file>
@@ -300,6 +303,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -312,7 +316,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1810,8 +1813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3CA4A4C-D98F-4F60-B24C-BB9338EBB26D}">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2017,7 +2020,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B16" t="s">
@@ -2042,7 +2045,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -2064,8 +2067,11 @@
       <c r="I17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -2075,14 +2081,20 @@
       <c r="C18" t="s">
         <v>8</v>
       </c>
+      <c r="D18" t="s">
+        <v>53</v>
+      </c>
       <c r="H18" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I18" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -2096,7 +2108,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -2110,7 +2122,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -2124,60 +2136,63 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>24</v>
       </c>
       <c r="C22" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C23" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" s="5" t="s">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="5"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" s="7" t="s">
+      <c r="B28" s="6"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B29" s="8"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" s="7" t="s">
+      <c r="B29" s="9"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A30" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="8"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" s="6" t="s">
+      <c r="B30" s="9"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A31" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="6"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" s="6" t="s">
+      <c r="B31" s="7"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A32" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="6"/>
+      <c r="B32" s="7"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="6"/>
+      <c r="B33" s="7"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="6"/>
+      <c r="B34" s="7"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">

--- a/Schema Design/Schemas.xlsx
+++ b/Schema Design/Schemas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rishi\OneDrive\Desktop\Node\Schema Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C0DDA6-5477-48E0-AA82-9E08380DEC02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC3219D1-B27F-4394-A3D8-743A660AB6CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{63B837C1-41E2-47B2-B1B2-537C4BD5A316}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="60">
   <si>
     <t>Students</t>
   </si>
@@ -193,13 +193,31 @@
   </si>
   <si>
     <t>SuperUser_ID</t>
+  </si>
+  <si>
+    <t>Authentication Endpoints</t>
+  </si>
+  <si>
+    <t>AuthParents</t>
+  </si>
+  <si>
+    <t>AuthDrivers</t>
+  </si>
+  <si>
+    <t>AuthSchoolAdmins</t>
+  </si>
+  <si>
+    <t>AuthSuperUsers</t>
+  </si>
+  <si>
+    <t>WorkFlow</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,14 +227,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="7" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -295,15 +305,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -314,6 +324,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -369,6 +385,9 @@
             <a:gd name="adj" fmla="val 29070"/>
           </a:avLst>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -393,10 +412,14 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>               </a:t>
+            <a:t>                     </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>SuperUser</a:t>
           </a:r>
         </a:p>
@@ -436,6 +459,9 @@
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -463,7 +489,11 @@
             <a:t>                  </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>Admin</a:t>
           </a:r>
         </a:p>
@@ -559,6 +589,9 @@
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -586,7 +619,11 @@
             <a:t>                  </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>Parents</a:t>
           </a:r>
         </a:p>
@@ -626,6 +663,9 @@
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -653,7 +693,11 @@
             <a:t>                  </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>Students</a:t>
           </a:r>
         </a:p>
@@ -693,6 +737,9 @@
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -717,10 +764,14 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>                  </a:t>
+            <a:t>                      </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>Drivers</a:t>
           </a:r>
         </a:p>
@@ -760,6 +811,9 @@
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -784,10 +838,14 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>                  </a:t>
+            <a:t>                      </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>School</a:t>
           </a:r>
         </a:p>
@@ -827,6 +885,9 @@
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -854,7 +915,11 @@
             <a:t>                  </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>Locations</a:t>
           </a:r>
         </a:p>
@@ -894,6 +959,9 @@
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -918,10 +986,14 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>                  </a:t>
+            <a:t>               </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>Buses</a:t>
           </a:r>
         </a:p>
@@ -961,6 +1033,9 @@
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -985,10 +1060,14 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>                  </a:t>
+            <a:t>           </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>Routes</a:t>
           </a:r>
         </a:p>
@@ -1420,6 +1499,9 @@
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -1447,8 +1529,24 @@
             <a:t>           </a:t>
           </a:r>
           <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Daily</a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Daily Attendance</a:t>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Attendance</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1811,10 +1909,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3CA4A4C-D98F-4F60-B24C-BB9338EBB26D}">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1822,12 +1920,12 @@
     <col min="1" max="1" width="17.36328125" customWidth="1"/>
     <col min="2" max="2" width="17.453125" customWidth="1"/>
     <col min="3" max="3" width="18.08984375" customWidth="1"/>
-    <col min="4" max="4" width="18.26953125" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="4" max="4" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.08984375" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="17.1796875" customWidth="1"/>
-    <col min="8" max="8" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.08984375" customWidth="1"/>
+    <col min="8" max="8" width="14.26953125" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" customWidth="1"/>
     <col min="10" max="10" width="11.54296875" customWidth="1"/>
     <col min="11" max="11" width="14.36328125" customWidth="1"/>
   </cols>
@@ -1924,263 +2022,321 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="A13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C14" t="s">
+      <c r="I17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="B19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H14" t="s">
-        <v>32</v>
-      </c>
-      <c r="I14" t="s">
-        <v>7</v>
-      </c>
-      <c r="J14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" t="s">
-        <v>33</v>
-      </c>
-      <c r="I15" t="s">
-        <v>8</v>
-      </c>
-      <c r="J15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" t="s">
-        <v>34</v>
-      </c>
-      <c r="H16" t="s">
-        <v>19</v>
-      </c>
-      <c r="I16" t="s">
-        <v>19</v>
-      </c>
-      <c r="J16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="B21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E17" t="s">
-        <v>35</v>
-      </c>
-      <c r="H17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I17" t="s">
-        <v>15</v>
-      </c>
-      <c r="J17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" s="3"/>
+      <c r="C22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I18" t="s">
-        <v>9</v>
-      </c>
-      <c r="J18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" t="s">
-        <v>15</v>
-      </c>
-      <c r="I20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" t="s">
-        <v>16</v>
-      </c>
-      <c r="I21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B22" t="s">
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C22" t="s">
-        <v>14</v>
-      </c>
-      <c r="I22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C23" t="s">
-        <v>24</v>
-      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
         <v>41</v>
       </c>
       <c r="B28" s="6"/>
+      <c r="D28" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="6"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="8" t="s">
         <v>48</v>
       </c>
       <c r="B29" s="9"/>
+      <c r="D29" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="11"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="8" t="s">
         <v>36</v>
       </c>
       <c r="B30" s="9"/>
+      <c r="D30" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30" s="11"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
         <v>42</v>
       </c>
       <c r="B31" s="7"/>
+      <c r="D31" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" s="11"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
         <v>43</v>
       </c>
       <c r="B32" s="7"/>
+      <c r="D32" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" s="11"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
@@ -2195,20 +2351,36 @@
       <c r="B34" s="7"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>49</v>
       </c>
     </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A58" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="13">
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="A58:J58"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A32:B32"/>
@@ -2216,6 +2388,10 @@
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
